--- a/Input/MATSimInputFigure4p4lsecond.xlsx
+++ b/Input/MATSimInputFigure4p4lsecond.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -616,7 +616,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
